--- a/biology/Médecine/Anderson_Gray_McKendrick/Anderson_Gray_McKendrick.xlsx
+++ b/biology/Médecine/Anderson_Gray_McKendrick/Anderson_Gray_McKendrick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lieutenant-colonel Anderson Gray McKendrick DSc  (né le 8 septembre 1876 - décédé le 30 mai 1943) médecin militaire et épidémiologiste écossais, est un pionnier de l'utilisation de méthodes mathématiques en épidémiologie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">McKendrick est né [1] à Édimbourg fils de John Gray McKendrick, un physiologiste célèbre, et de sa femme, Mary Souttar. Son frère aîné est John Souttar McKendrick (1874-1946).
-Il fait ses études à la Kelvinside Academy puis suit une formation de médecine à l'Université de Glasgow de laquelle il sort diplômé en 1900. Il est ensuite officier dans l'armée britannique [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McKendrick est né  à Édimbourg fils de John Gray McKendrick, un physiologiste célèbre, et de sa femme, Mary Souttar. Son frère aîné est John Souttar McKendrick (1874-1946).
+Il fait ses études à la Kelvinside Academy puis suit une formation de médecine à l'Université de Glasgow de laquelle il sort diplômé en 1900. Il est ensuite officier dans l'armée britannique .
 Il travaille ensuite avec Ronald Ross et continue finalement ses travaux sur l'épidémiologie mathématique. Son principal intérêt est la recherche et il est directeur de l'Institut Pasteur à Kasauli au Pendjab 1914-1920. Il est renvoyé chez lui en Grande-Bretagne en 1920 et s'installe à Édimbourg où il devient directeur du laboratoire du Collège royal des médecins d'Édimbourg.
-La carrière de McKendrick en tant qu'épidémiologiste mathématique commence en Inde. En 1911, McKendrick redécouvre l'équation logistique et l'ajuste aux données de croissance bactérienne [3]. En 1912, il est élu membre de la Royal Society of Edinburgh et Cargill Gilston Knott est l'un de ses proposants [2].
+La carrière de McKendrick en tant qu'épidémiologiste mathématique commence en Inde. En 1911, McKendrick redécouvre l'équation logistique et l'ajuste aux données de croissance bactérienne . En 1912, il est élu membre de la Royal Society of Edinburgh et Cargill Gilston Knott est l'un de ses proposants .
 En 1914, il publie un article dans lequel il donne des équations pour le processus de naissance pur et un processus particulier de naissance-mort. En 1924, il est élu membre du Collège royal des médecins d'Édimbourg(Royal College of Physicians of Edinburgh). Après son retour en Écosse, il publie davantage. Son article de 1926, « Applications des mathématiques aux problèmes médicaux » est particulièrement impressionnant, notamment l'équation différentielle partielle McKendrick-Von Foerster largement utilisée
               ∂
               n
@@ -568,7 +582,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Applications des mathématiques aux problèmes médicaux, Kapil Proceedings of the Edinburgh Mathematical Society, vol 44, 1925–1926, p. 1–34. Réimprimé avec des commentaires dans S. Kotz &amp; NL Johnson (Éditeurs), Breakthroughs in Statistics, volume III, New York Springer, 1997.
 Adj Kermack, AG McKendrick, « Une contribution à la théorie mathématique des épidémies », Actes de la Royal Society of London, série A, Vol. 115, 1927, p. 700-721.
@@ -601,7 +617,9 @@
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a un compte rendu du document Applications de McKendrick dans JO Irwin, La place des mathématiques dans les statistiques médicales et biologiques, Journal of the Royal Statistical Society, série A (Général), Vol. 126, no 1, 1963, p. 1–45.
 </t>
